--- a/documentation/routes.xlsx
+++ b/documentation/routes.xlsx
@@ -18,8 +18,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{C1B546D2-4188-4E55-B863-1A6C744B6FBB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">GET price of BTC/USD, update every 10 seconds
+http://localhost:3000/p?from=BTC&amp;to=USD
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -28,19 +53,61 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>serves index.html</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/ind</t>
+  </si>
+  <si>
+    <t>indicators</t>
+  </si>
+  <si>
+    <t>TODO: return calculation results</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>return  price of a currency pair</t>
+  </si>
+  <si>
+    <t>/p</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,13 +130,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -80,6 +175,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5285AC8-B548-4942-B913-21385F26373D}" name="Tabelle1" displayName="Tabelle1" ref="A3:E6" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+  <autoFilter ref="A3:E6" xr:uid="{8CEDB9FA-36EA-4FC8-9CB3-16C89C35E2E5}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B07374CE-828A-4D82-BC73-B5A0BF96A33A}" name="No." dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{17E95518-3512-4F51-BED1-AAD514B18DCF}" name="Route" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{35AD3B42-7959-4CEE-8330-57D19CF02767}" name="Name" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B9289F4D-6CF9-4EFD-BA37-E832D5DFE4A1}" name="Method" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{79D71783-90AB-4415-AC06-5B9014FD7BE3}" name="Description" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,30 +459,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="39.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/documentation/routes.xlsx
+++ b/documentation/routes.xlsx
@@ -33,9 +33,10 @@
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">GET price of BTC/USD, update every 10 seconds
+          <t>#GET price of BTC/USD, update every 10 seconds
 http://localhost:3000/p?from=BTC&amp;to=USD
-</t>
+#reponses:
+200, 500, 404</t>
         </r>
       </text>
     </comment>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -89,6 +90,15 @@
   </si>
   <si>
     <t>/p</t>
+  </si>
+  <si>
+    <t>/t</t>
+  </si>
+  <si>
+    <t>ticker</t>
+  </si>
+  <si>
+    <t>return basic info of a currency</t>
   </si>
 </sst>
 </file>
@@ -147,16 +157,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -178,8 +188,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5285AC8-B548-4942-B913-21385F26373D}" name="Tabelle1" displayName="Tabelle1" ref="A3:E6" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
-  <autoFilter ref="A3:E6" xr:uid="{8CEDB9FA-36EA-4FC8-9CB3-16C89C35E2E5}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5285AC8-B548-4942-B913-21385F26373D}" name="Tabelle1" displayName="Tabelle1" ref="A3:E7" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A3:E7" xr:uid="{8CEDB9FA-36EA-4FC8-9CB3-16C89C35E2E5}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -187,11 +197,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B07374CE-828A-4D82-BC73-B5A0BF96A33A}" name="No." dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{17E95518-3512-4F51-BED1-AAD514B18DCF}" name="Route" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{35AD3B42-7959-4CEE-8330-57D19CF02767}" name="Name" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{B9289F4D-6CF9-4EFD-BA37-E832D5DFE4A1}" name="Method" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{79D71783-90AB-4415-AC06-5B9014FD7BE3}" name="Description" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{B07374CE-828A-4D82-BC73-B5A0BF96A33A}" name="No." dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{17E95518-3512-4F51-BED1-AAD514B18DCF}" name="Route" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{35AD3B42-7959-4CEE-8330-57D19CF02767}" name="Name" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{B9289F4D-6CF9-4EFD-BA37-E832D5DFE4A1}" name="Method" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{79D71783-90AB-4415-AC06-5B9014FD7BE3}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -460,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:E6"/>
+  <dimension ref="A3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,6 +553,23 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/documentation/routes.xlsx
+++ b/documentation/routes.xlsx
@@ -92,13 +92,13 @@
     <t>/p</t>
   </si>
   <si>
-    <t>/t</t>
-  </si>
-  <si>
-    <t>ticker</t>
-  </si>
-  <si>
-    <t>return basic info of a currency</t>
+    <t>/if</t>
+  </si>
+  <si>
+    <t>ifexist</t>
+  </si>
+  <si>
+    <t>check if a symbol exist</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/documentation/routes.xlsx
+++ b/documentation/routes.xlsx
@@ -40,6 +40,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{C50C2B6D-DC38-429E-8353-83EE3E330C6D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>http://localhost:3000/ifexist/{insert_symbol_here}
+#Example</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+http://localhost:3000/ifexist/BTC
+Reponse: 1
+http://localhost:3000/ifexist/JHs2Wd
+Reponse: 0
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -105,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +147,13 @@
       <color indexed="81"/>
       <name val="Segoe UI"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -473,7 +509,7 @@
   <dimension ref="A3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,9 +608,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/documentation/routes.xlsx
+++ b/documentation/routes.xlsx
@@ -509,7 +509,7 @@
   <dimension ref="A3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/documentation/routes.xlsx
+++ b/documentation/routes.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>check if a symbol exist</t>
+  </si>
+  <si>
+    <t>POST</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
   <dimension ref="A3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>

--- a/documentation/routes.xlsx
+++ b/documentation/routes.xlsx
@@ -50,7 +50,7 @@
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>http://localhost:3000/ifexist/{insert_symbol_here}
+          <t>http://localhost:3000/if/{insert_symbol_here}
 #Example</t>
         </r>
         <r>
@@ -61,9 +61,9 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-http://localhost:3000/ifexist/BTC
+http://localhost:3000/if/BTC
 Reponse: 1
-http://localhost:3000/ifexist/JHs2Wd
+http://localhost:3000/if/JHs2Wd
 Reponse: 0
 </t>
         </r>
@@ -512,7 +512,7 @@
   <dimension ref="A3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L9" sqref="L9:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/documentation/routes.xlsx
+++ b/documentation/routes.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="price" sheetId="3" r:id="rId2"/>
+    <sheet name="ifexist" sheetId="4" r:id="rId3"/>
+    <sheet name="ind" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{C1B546D2-4188-4E55-B863-1A6C744B6FBB}">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{C50C2B6D-DC38-429E-8353-83EE3E330C6D}">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -130,14 +133,104 @@
     <t>check if a symbol exist</t>
   </si>
   <si>
-    <t>POST</t>
+    <t>from, to</t>
+  </si>
+  <si>
+    <t>type, param, pair, timeframe</t>
+  </si>
+  <si>
+    <t>Route:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query </t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Symbol of the "from" currency, which we want to know the price of</t>
+  </si>
+  <si>
+    <t>The "to" currency, with which the price of the "from" currency be reported</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Route name</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/p?from=BTC&amp;to=USD</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>{"USD":9199.56}</t>
+  </si>
+  <si>
+    <t>(price of BTC in USD)</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>string, part of url path</t>
+  </si>
+  <si>
+    <t>the to be checked symbol</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/if/BTC</t>
+  </si>
+  <si>
+    <t>a reponse of 1 means symbol exists, else 0</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>pair</t>
+  </si>
+  <si>
+    <t>timeframe</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>array of 0-4 intergers</t>
+  </si>
+  <si>
+    <t>array of exactly 2 strings</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/ind?type=rsi&amp;params=14&amp;pair=BTC,USD&amp;timeframe=1440</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +251,28 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,7 +282,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -175,11 +290,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,31 +413,493 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -227,22 +915,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5285AC8-B548-4942-B913-21385F26373D}" name="Tabelle1" displayName="Tabelle1" ref="A3:E7" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A3:E7" xr:uid="{8CEDB9FA-36EA-4FC8-9CB3-16C89C35E2E5}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B2:G6" totalsRowShown="0" headerRowDxfId="21" dataDxfId="25" headerRowBorderDxfId="23" tableBorderDxfId="24" totalsRowBorderDxfId="22" headerRowCellStyle="Erklärender Text" dataCellStyle="Erklärender Text">
+  <autoFilter ref="B2:G6">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B07374CE-828A-4D82-BC73-B5A0BF96A33A}" name="No." dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{17E95518-3512-4F51-BED1-AAD514B18DCF}" name="Route" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{35AD3B42-7959-4CEE-8330-57D19CF02767}" name="Name" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{B9289F4D-6CF9-4EFD-BA37-E832D5DFE4A1}" name="Method" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{79D71783-90AB-4415-AC06-5B9014FD7BE3}" name="Description" dataDxfId="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="No." dataDxfId="20"/>
+    <tableColumn id="2" name="Route" dataDxfId="19"/>
+    <tableColumn id="3" name="Name" dataDxfId="18"/>
+    <tableColumn id="5" name="Method" dataDxfId="17"/>
+    <tableColumn id="6" name="Parameters" dataDxfId="16"/>
+    <tableColumn id="4" name="Description" dataDxfId="15"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="B5:D7" totalsRowShown="0" headerRowDxfId="14" dataDxfId="10">
+  <autoFilter ref="B5:D7">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Query " dataDxfId="13"/>
+    <tableColumn id="2" name="Format" dataDxfId="12"/>
+    <tableColumn id="3" name="Description" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle38" displayName="Tabelle38" ref="B5:D6" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B5:D6">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Parameter" dataDxfId="2"/>
+    <tableColumn id="2" name="Format" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle37" displayName="Tabelle37" ref="B5:D9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B5:D9">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Query " dataDxfId="7"/>
+    <tableColumn id="2" name="Format" dataDxfId="6"/>
+    <tableColumn id="3" name="Description" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -508,113 +1246,413 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="39.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="2"/>
+    <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="8">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="G5" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="B2:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/documentation/routes.xlsx
+++ b/documentation/routes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="3"/>
@@ -12,7 +12,7 @@
     <sheet name="ifexist" sheetId="4" r:id="rId3"/>
     <sheet name="ind" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +24,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Autor</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -224,13 +224,25 @@
   </si>
   <si>
     <t>http://localhost:3000/ind?type=rsi&amp;params=14&amp;pair=BTC,USD&amp;timeframe=1440</t>
+  </si>
+  <si>
+    <t>suggest return list of price object of a "from" currency</t>
+  </si>
+  <si>
+    <t>BTC =&gt; {</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>{"name": "USD", "price":9188.56}, {"name":"VND", "price": 99999}...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +285,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -402,10 +422,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,9 +470,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
     <dxf>
@@ -501,9 +524,9 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -566,9 +589,9 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -850,6 +873,39 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -867,39 +923,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -915,7 +938,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B2:G6" totalsRowShown="0" headerRowDxfId="21" dataDxfId="25" headerRowBorderDxfId="23" tableBorderDxfId="24" totalsRowBorderDxfId="22" headerRowCellStyle="Erklärender Text" dataCellStyle="Erklärender Text">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B2:G6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="B2:G6">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -937,48 +960,48 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="B5:D7" totalsRowShown="0" headerRowDxfId="14" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="B5:D7" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="B5:D7">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="Query " dataDxfId="13"/>
-    <tableColumn id="2" name="Format" dataDxfId="12"/>
-    <tableColumn id="3" name="Description" dataDxfId="11"/>
+    <tableColumn id="1" name="Query " dataDxfId="12"/>
+    <tableColumn id="2" name="Format" dataDxfId="11"/>
+    <tableColumn id="3" name="Description" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle38" displayName="Tabelle38" ref="B5:D6" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle38" displayName="Tabelle38" ref="B5:D6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="B5:D6">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="Parameter" dataDxfId="2"/>
-    <tableColumn id="2" name="Format" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Parameter" dataDxfId="7"/>
+    <tableColumn id="2" name="Format" dataDxfId="6"/>
+    <tableColumn id="3" name="Description" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle37" displayName="Tabelle37" ref="B5:D9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle37" displayName="Tabelle37" ref="B5:D9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="B5:D9">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="Query " dataDxfId="7"/>
-    <tableColumn id="2" name="Format" dataDxfId="6"/>
-    <tableColumn id="3" name="Description" dataDxfId="5"/>
+    <tableColumn id="1" name="Query " dataDxfId="2"/>
+    <tableColumn id="2" name="Format" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1239,7 +1262,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1250,10 +1273,10 @@
   <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="2"/>
@@ -1374,13 +1397,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="B2:D12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
@@ -1455,6 +1478,26 @@
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1469,11 +1512,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
@@ -1552,10 +1595,10 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
@@ -1634,7 +1677,7 @@
       <c r="B11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1650,9 +1693,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/documentation/routes.xlsx
+++ b/documentation/routes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Route name</t>
   </si>
   <si>
-    <t>http://localhost:3000/p?from=BTC&amp;to=USD</t>
-  </si>
-  <si>
     <t>Response</t>
   </si>
   <si>
@@ -193,12 +190,6 @@
     <t>string, part of url path</t>
   </si>
   <si>
-    <t>the to be checked symbol</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/if/BTC</t>
-  </si>
-  <si>
     <t>a reponse of 1 means symbol exists, else 0</t>
   </si>
   <si>
@@ -223,9 +214,6 @@
     <t>array of exactly 2 strings</t>
   </si>
   <si>
-    <t>http://localhost:3000/ind?type=rsi&amp;params=14&amp;pair=BTC,USD&amp;timeframe=1440</t>
-  </si>
-  <si>
     <t>suggest return list of price object of a "from" currency</t>
   </si>
   <si>
@@ -236,13 +224,31 @@
   </si>
   <si>
     <t>{"name": "USD", "price":9188.56}, {"name":"VND", "price": 99999}...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the symbol to be checked </t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ind?type=rsi&amp;params=14&amp;pair=BTC,USD&amp;timeframe=1440</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/if/BTC</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/p?from=BTC&amp;to=USD</t>
+  </si>
+  <si>
+    <t>(working on it)</t>
+  </si>
+  <si>
+    <t>( status in indicators.xlsx)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +299,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -426,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,10 +482,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
     <dxf>
@@ -938,8 +952,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B2:G6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="B2:G6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B2:G6" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="B2:G6" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -948,60 +962,60 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="No." dataDxfId="20"/>
-    <tableColumn id="2" name="Route" dataDxfId="19"/>
-    <tableColumn id="3" name="Name" dataDxfId="18"/>
-    <tableColumn id="5" name="Method" dataDxfId="17"/>
-    <tableColumn id="6" name="Parameters" dataDxfId="16"/>
-    <tableColumn id="4" name="Description" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No." dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Route" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Method" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Parameters" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="B5:D7" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="B5:D7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle3" displayName="Tabelle3" ref="B5:D7" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="B5:D7" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="Query " dataDxfId="12"/>
-    <tableColumn id="2" name="Format" dataDxfId="11"/>
-    <tableColumn id="3" name="Description" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Query " dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Format" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle38" displayName="Tabelle38" ref="B5:D6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B5:D6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle38" displayName="Tabelle38" ref="B5:D6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B5:D6" xr:uid="{00000000-0009-0000-0100-000007000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="Parameter" dataDxfId="7"/>
-    <tableColumn id="2" name="Format" dataDxfId="6"/>
-    <tableColumn id="3" name="Description" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Parameter" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Format" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle37" displayName="Tabelle37" ref="B5:D9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="B5:D9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle37" displayName="Tabelle37" ref="B5:D9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B5:D9" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="Query " dataDxfId="2"/>
-    <tableColumn id="2" name="Format" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Query " dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Format" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1262,32 +1276,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="2"/>
-    <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="18">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1301,13 +1315,13 @@
         <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="15.6">
       <c r="B3" s="8">
         <v>0</v>
       </c>
@@ -1325,7 +1339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="15.6">
       <c r="B4" s="8">
         <v>1</v>
       </c>
@@ -1345,7 +1359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="15.6">
       <c r="B5" s="8">
         <v>2</v>
       </c>
@@ -1365,7 +1379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="15.6">
       <c r="B6" s="11">
         <v>3</v>
       </c>
@@ -1379,7 +1393,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>17</v>
@@ -1396,21 +1410,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="18">
       <c r="B2" s="14" t="s">
         <v>29</v>
       </c>
@@ -1418,7 +1432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="18">
       <c r="B3" s="14" t="s">
         <v>20</v>
       </c>
@@ -1426,7 +1440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="18">
       <c r="B5" s="16" t="s">
         <v>21</v>
       </c>
@@ -1437,7 +1451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="15.6">
       <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
@@ -1448,7 +1462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="15.6">
       <c r="B7" s="15" t="s">
         <v>24</v>
       </c>
@@ -1459,246 +1473,255 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="18">
       <c r="B9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="18">
+      <c r="B11" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="15" t="s">
+    </row>
+    <row r="12" spans="2:4">
+      <c r="C12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4">
       <c r="C14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
       <c r="C15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
       <c r="C16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D11"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="15"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{FC8111DC-6735-44D5-AD48-589A51891935}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="18">
+      <c r="B2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18">
+      <c r="B3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18">
+      <c r="B5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.6">
+      <c r="B6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18">
+      <c r="B8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="18">
+      <c r="B10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{CF868933-B1F8-4BDD-A60C-33AAD9B6E74C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="70.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="18">
+      <c r="B2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="18">
+      <c r="B3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="18">
+      <c r="B5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.6">
+      <c r="B6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="2:4" ht="15.6">
+      <c r="B7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.6">
+      <c r="B8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="2:4" ht="15.6">
+      <c r="B9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="2:4" ht="15.6">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="2:4" ht="18">
+      <c r="B11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="18">
+      <c r="B13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/documentation/routes.xlsx
+++ b/documentation/routes.xlsx
@@ -196,9 +196,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>params</t>
-  </si>
-  <si>
     <t>pair</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t xml:space="preserve">the symbol to be checked </t>
   </si>
   <si>
-    <t>http://localhost:8080/ind?type=rsi&amp;params=14&amp;pair=BTC,USD&amp;timeframe=1440</t>
-  </si>
-  <si>
     <t>http://localhost:8080/if/BTC</t>
   </si>
   <si>
@@ -242,6 +236,12 @@
   </si>
   <si>
     <t>( status in indicators.xlsx)</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ind?type=rsi&amp;options=14&amp;pair=BTC,USD&amp;timeframe=1440</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1478,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="18">
@@ -1496,22 +1496,22 @@
     </row>
     <row r="14" spans="2:4">
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1575,7 +1575,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="18">
@@ -1583,7 +1583,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="18">
@@ -1615,7 +1615,7 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -1663,28 +1663,28 @@
     </row>
     <row r="7" spans="2:4" ht="15.6">
       <c r="B7" s="15" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="15"/>
     </row>
     <row r="8" spans="2:4" ht="15.6">
       <c r="B8" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="15"/>
     </row>
     <row r="9" spans="2:4" ht="15.6">
       <c r="B9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>42</v>
       </c>
       <c r="D9" s="15"/>
     </row>
@@ -1698,7 +1698,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="18">
@@ -1706,12 +1706,12 @@
         <v>30</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="C14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/routes.xlsx
+++ b/documentation/routes.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593DED82-77A6-4D62-986D-B5AA0B13BE28}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,7 +242,7 @@
     <t>options</t>
   </si>
   <si>
-    <t>http://localhost:8080/ind?type=rsi&amp;options=14&amp;pair=BTC,USD&amp;timeframe=1440</t>
+    <t>http://localhost:8080/ind?type=sma&amp;options=14&amp;pair=BTC,USD&amp;timeframe=60</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1616,7 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>

--- a/documentation/routes.xlsx
+++ b/documentation/routes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593DED82-77A6-4D62-986D-B5AA0B13BE28}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574DFA2B-A552-48BF-8037-D5FC40C8371B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -203,9 +203,6 @@
     <t>timeframe</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>array of 0-4 intergers</t>
   </si>
   <si>
@@ -242,7 +239,10 @@
     <t>options</t>
   </si>
   <si>
-    <t>http://localhost:8080/ind?type=sma&amp;options=14&amp;pair=BTC,USD&amp;timeframe=60</t>
+    <t>Currently supported: H1</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/ind?type=sma&amp;options=10&amp;pair=BTC,USD&amp;timeframe=H1</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1479,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="18">
@@ -1497,22 +1497,22 @@
     </row>
     <row r="14" spans="2:4">
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1576,7 +1576,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="18">
@@ -1584,7 +1584,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="18">
@@ -1664,10 +1664,10 @@
     </row>
     <row r="7" spans="2:4" ht="15.6">
       <c r="B7" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="15"/>
     </row>
@@ -1676,7 +1676,7 @@
         <v>39</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -1685,9 +1685,11 @@
         <v>40</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="2:4" ht="15.6">
       <c r="B10" s="15"/>
@@ -1707,12 +1709,12 @@
         <v>30</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/routes.xlsx
+++ b/documentation/routes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574DFA2B-A552-48BF-8037-D5FC40C8371B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC0FA08-CCDF-4A49-A6C2-75DF79D6F7CE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -230,26 +230,23 @@
     <t>http://localhost:8080/p?from=BTC&amp;to=USD</t>
   </si>
   <si>
-    <t>(working on it)</t>
-  </si>
-  <si>
     <t>( status in indicators.xlsx)</t>
   </si>
   <si>
     <t>options</t>
   </si>
   <si>
-    <t>Currently supported: H1</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/ind?type=sma&amp;options=10&amp;pair=BTC,USD&amp;timeframe=H1</t>
+    <t>http://localhost:8080/ind?type=sma&amp;options=2&amp;pair=BTC,USD&amp;timeframe=H1</t>
+  </si>
+  <si>
+    <t>Currently supported: D30, D1, H1, H2, H4, M30, M15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,11 +297,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -438,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -483,9 +475,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1291,7 +1280,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="2"/>
@@ -1302,7 +1291,7 @@
     <col min="7" max="7" width="31.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18">
+    <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1322,7 +1311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.6">
+    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="8">
         <v>0</v>
       </c>
@@ -1340,7 +1329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15.6">
+    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="8">
         <v>1</v>
       </c>
@@ -1360,7 +1349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.6">
+    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="8">
         <v>2</v>
       </c>
@@ -1380,7 +1369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.6">
+    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="11">
         <v>3</v>
       </c>
@@ -1418,14 +1407,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18">
+    <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
         <v>29</v>
       </c>
@@ -1433,7 +1422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="18">
+    <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>20</v>
       </c>
@@ -1441,7 +1430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="18">
+    <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="16" t="s">
         <v>21</v>
       </c>
@@ -1452,7 +1441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15.6">
+    <row r="6" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
@@ -1463,7 +1452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15.6">
+    <row r="7" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
         <v>24</v>
       </c>
@@ -1474,7 +1463,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="18">
+    <row r="9" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>28</v>
       </c>
@@ -1482,7 +1471,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="18">
+    <row r="11" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>30</v>
       </c>
@@ -1490,27 +1479,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>45</v>
       </c>
@@ -1534,14 +1523,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18">
+    <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
         <v>29</v>
       </c>
@@ -1549,7 +1538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="18">
+    <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>20</v>
       </c>
@@ -1557,7 +1546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="18">
+    <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="16" t="s">
         <v>35</v>
       </c>
@@ -1568,7 +1557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15.6">
+    <row r="6" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>34</v>
       </c>
@@ -1579,7 +1568,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="18">
+    <row r="8" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>28</v>
       </c>
@@ -1587,7 +1576,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="18">
+    <row r="10" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
         <v>30</v>
       </c>
@@ -1595,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>37</v>
       </c>
@@ -1613,20 +1602,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.44140625" customWidth="1"/>
     <col min="4" max="4" width="70.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18">
+    <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
         <v>29</v>
       </c>
@@ -1634,7 +1623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="18">
+    <row r="3" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>20</v>
       </c>
@@ -1642,7 +1631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="18">
+    <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B5" s="16" t="s">
         <v>21</v>
       </c>
@@ -1653,7 +1642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15.6">
+    <row r="6" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>38</v>
       </c>
@@ -1662,16 +1651,16 @@
       </c>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" spans="2:4" ht="15.6">
+    <row r="7" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="2:4" ht="15.6">
+    <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>39</v>
       </c>
@@ -1680,7 +1669,7 @@
       </c>
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="2:4" ht="15.6">
+    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>40</v>
       </c>
@@ -1691,30 +1680,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="15.6">
+    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="2:4" ht="18">
+    <row r="11" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="C14" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
